--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v7.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v7.4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\edec-codelists\work-in-progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DA88BB-CF61-419C-A5E6-4ECFEC84DB2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$M$84</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="472">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1496,12 +1502,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>10 numeric characters.
-1. Enterprise identification number: the first digit has to be "0" or "1"
-2. Establishment unit identification number: the first digit has to be "2".
-The two last characters are check digits. They are the result of the following computation: 97 - ((8 first digits) modulo 97).</t>
-  </si>
-  <si>
     <t>The identification number can be displayed in the following ways:
 For enterprise numbers:
 - a group of four digits, then two groups of three digits, each group separated by a dot. Example: 1234.456.789
@@ -1661,12 +1661,19 @@
     <t>Proposed to undeprecate; longest known is 18 chars (incl. country code)
 Deprecated in 1.1.0</t>
   </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>10 numeric characters.
+1. Enterprise identification number: the first digit has to be "0" or "1"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1792,13 +1799,75 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="_x0000_t202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E65F441-BC20-4D64-9F65-2A157A3F02BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1836,9 +1905,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,9 +1939,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1904,9 +1991,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2079,17 +2184,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -2108,7 +2213,7 @@
     <col min="1027" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2140,16 +2245,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>437</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>438</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2182,13 +2287,13 @@
         <v>394</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2221,10 +2326,10 @@
         <v>395</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,10 +2362,10 @@
         <v>396</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="150">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2293,13 +2398,13 @@
         <v>397</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="105">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2332,13 +2437,13 @@
         <v>398</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2371,13 +2476,13 @@
         <v>399</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="195">
+    <row r="8" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2407,10 +2512,10 @@
         <v>35</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="180">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2440,13 +2545,13 @@
         <v>35</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="210">
+    <row r="10" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2476,13 +2581,13 @@
         <v>35</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2515,7 +2620,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2548,7 +2653,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -2581,7 +2686,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="240">
+    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -2614,13 +2719,13 @@
         <v>400</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="150">
+    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>344</v>
       </c>
@@ -2650,13 +2755,13 @@
         <v>342</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -2686,11 +2791,11 @@
         <v>390</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13 1027:1027" ht="150">
+    <row r="17" spans="1:13 1027:1027" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -2723,13 +2828,13 @@
         <v>401</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:13 1027:1027" ht="225">
+    <row r="18" spans="1:13 1027:1027" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2762,13 +2867,13 @@
         <v>402</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:13 1027:1027" ht="60">
+    <row r="19" spans="1:13 1027:1027" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -2801,10 +2906,10 @@
         <v>403</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13 1027:1027" ht="45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13 1027:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -2834,10 +2939,10 @@
         <v>35</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13 1027:1027" ht="105">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13 1027:1027" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -2867,13 +2972,13 @@
         <v>392</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="1:13 1027:1027" ht="105">
+    <row r="22" spans="1:13 1027:1027" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
@@ -2903,10 +3008,10 @@
         <v>393</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13 1027:1027" ht="45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13 1027:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>350</v>
       </c>
@@ -2936,10 +3041,10 @@
         <v>353</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13 1027:1027" ht="409.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13 1027:1027" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>358</v>
       </c>
@@ -2969,10 +3074,10 @@
         <v>357</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13 1027:1027" ht="90">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13 1027:1027" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
@@ -3005,10 +3110,10 @@
         <v>404</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13 1027:1027" ht="30">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13 1027:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>359</v>
       </c>
@@ -3039,14 +3144,14 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>365</v>
       </c>
       <c r="AMM26" s="1"/>
     </row>
-    <row r="27" spans="1:13 1027:1027" ht="45">
+    <row r="27" spans="1:13 1027:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>366</v>
       </c>
@@ -3077,16 +3182,16 @@
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>372</v>
       </c>
       <c r="AMM27" s="1"/>
     </row>
-    <row r="28" spans="1:13 1027:1027" ht="165">
+    <row r="28" spans="1:13 1027:1027" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>430</v>
@@ -3108,16 +3213,18 @@
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>435</v>
-      </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="13" t="s">
+        <v>468</v>
+      </c>
       <c r="AMM28" s="1"/>
     </row>
-    <row r="29" spans="1:13 1027:1027" ht="30">
+    <row r="29" spans="1:13 1027:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>127</v>
       </c>
@@ -3150,7 +3257,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:13 1027:1027" ht="45">
+    <row r="30" spans="1:13 1027:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>131</v>
       </c>
@@ -3177,10 +3284,10 @@
         <v>405</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13 1027:1027" ht="45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13 1027:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -3207,10 +3314,10 @@
         <v>137</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13 1027:1027" ht="45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13 1027:1027" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
@@ -3240,7 +3347,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="105">
+    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -3264,10 +3371,10 @@
         <v>144</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="285">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="285" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
@@ -3294,13 +3401,13 @@
         <v>406</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="60">
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -3327,13 +3434,13 @@
         <v>103</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="45">
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
@@ -3363,13 +3470,13 @@
         <v>158</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="90">
+    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -3390,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="75">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
@@ -3421,13 +3528,13 @@
         <v>162</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="30">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
@@ -3454,7 +3561,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>166</v>
       </c>
@@ -3478,7 +3585,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -3503,13 +3610,13 @@
         <v>407</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -3533,7 +3640,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="105">
+    <row r="43" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>180</v>
       </c>
@@ -3563,13 +3670,13 @@
         <v>393</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="75">
+    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>184</v>
       </c>
@@ -3596,7 +3703,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
@@ -3624,7 +3731,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>191</v>
       </c>
@@ -3648,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>194</v>
       </c>
@@ -3678,7 +3785,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>196</v>
       </c>
@@ -3700,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>200</v>
       </c>
@@ -3722,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>204</v>
       </c>
@@ -3744,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>208</v>
       </c>
@@ -3766,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>211</v>
       </c>
@@ -3788,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>215</v>
       </c>
@@ -3810,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>219</v>
       </c>
@@ -3831,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>223</v>
       </c>
@@ -3853,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>227</v>
       </c>
@@ -3875,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>231</v>
       </c>
@@ -3897,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>234</v>
       </c>
@@ -3919,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>238</v>
       </c>
@@ -3941,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>242</v>
       </c>
@@ -3963,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>246</v>
       </c>
@@ -3985,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>250</v>
       </c>
@@ -4007,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>254</v>
       </c>
@@ -4029,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>257</v>
       </c>
@@ -4051,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>261</v>
       </c>
@@ -4073,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>265</v>
       </c>
@@ -4095,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>269</v>
       </c>
@@ -4117,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>273</v>
       </c>
@@ -4139,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>277</v>
       </c>
@@ -4161,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>281</v>
       </c>
@@ -4183,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>284</v>
       </c>
@@ -4205,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>288</v>
       </c>
@@ -4227,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>292</v>
       </c>
@@ -4249,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>296</v>
       </c>
@@ -4271,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>300</v>
       </c>
@@ -4293,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>304</v>
       </c>
@@ -4315,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>308</v>
       </c>
@@ -4336,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>312</v>
       </c>
@@ -4358,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30">
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>316</v>
       </c>
@@ -4380,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>320</v>
       </c>
@@ -4407,7 +4514,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>325</v>
       </c>
@@ -4428,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="105">
+    <row r="82" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>329</v>
       </c>
@@ -4448,8 +4555,11 @@
         <v>87</v>
       </c>
       <c r="G82" s="7" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>333</v>
@@ -4458,10 +4568,10 @@
         <v>408</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>334</v>
       </c>
@@ -4482,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>337</v>
       </c>
@@ -4510,11 +4620,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M84">
-    <filterColumn colId="11"/>
-  </autoFilter>
+  <autoFilter ref="A1:M84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>